--- a/MLB 2013-2023 Stats/MLB 2013-2023 Data Set.xlsx
+++ b/MLB 2013-2023 Stats/MLB 2013-2023 Data Set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DataAnalystProjects\MLB 2013-2023 Stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD5B0F0-092F-4652-BD07-6ECC34385700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC9E3E3-0F44-4F99-9B6C-E585CE62C208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDBA7488-3780-4E6B-A66C-3CD5003D5A1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CDBA7488-3780-4E6B-A66C-3CD5003D5A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Batting" sheetId="1" r:id="rId1"/>
@@ -2149,7 +2149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226DD974-539D-4BD4-93E1-80E106EBE0C2}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3233,7 +3233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8573BA92-1EA9-4FAC-B536-F0A41E8E206B}">
   <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
@@ -4569,7 +4569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAACA1A1-C05A-4C2E-B892-EDBE54FA5339}">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
